--- a/WebContent/doc/table-list.xlsx
+++ b/WebContent/doc/table-list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjho1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_prog\eclipse\workspace_prj\javarajob\WebContent\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="257">
   <si>
     <t>테이블 이름</t>
   </si>
@@ -671,6 +671,238 @@
   </si>
   <si>
     <t>가입일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등학교 입학년도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등학교 입학 월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등학교 졸업 년도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등학교 졸업 월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등학교 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고등학교 종류(문과,이화,예체능 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학교 입학 시기(월)</t>
+  </si>
+  <si>
+    <t>대학교 졸업 시기(년)</t>
+  </si>
+  <si>
+    <t>대학교 졸업 시기(월)</t>
+  </si>
+  <si>
+    <t>대학교 이름</t>
+  </si>
+  <si>
+    <t>대학교 종류(2년제, 4년제 등)</t>
+  </si>
+  <si>
+    <t>대학교 졸업 학점</t>
+  </si>
+  <si>
+    <t>대학교 주전공</t>
+  </si>
+  <si>
+    <t>대학교 입학 시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학원 입학 시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학원 입학 시기(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학원 졸업 시기(년)</t>
+  </si>
+  <si>
+    <t>대학원 졸업 시기(월)</t>
+  </si>
+  <si>
+    <t>대학원 이름</t>
+  </si>
+  <si>
+    <t>대학원 졸업 학점</t>
+  </si>
+  <si>
+    <t>대학원 주전공</t>
+  </si>
+  <si>
+    <t>대학원 종류(석사과정, 박사과정 등)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증/면허증 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증/면허증 발행 기관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증/면허증 등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 직장 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 직장 입사시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 직장 퇴사시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 직장 입사시기(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 직장 퇴사시기(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 직장 직급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>외국어명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어학 시험 점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어학 시험 취득시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어학 시험 취득시기(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어학 시험 취득시기(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어학 시험 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수여 기관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상 시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상 시기(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상 시기(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외 연수 국가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외 연수 기관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외 연수 목적 및 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보훈 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>병역 구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입대 시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제대 시기(년)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제대 시기(월)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입대 시기(일)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이력서 사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +910,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -694,6 +926,11 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -736,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,6 +994,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1039,11 +1277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
@@ -1054,7 +1292,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1308,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15">
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1324,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="15">
+    <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1340,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1356,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1372,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -1192,9 +1430,11 @@
       <c r="I7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="15">
+      <c r="J7" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1220,9 +1460,11 @@
       <c r="I8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15">
+      <c r="J8" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -1250,7 +1492,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1278,7 +1520,7 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1306,7 +1548,7 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1334,7 +1576,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>7</v>
       </c>
@@ -1362,7 +1604,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -1388,9 +1630,11 @@
       <c r="I14" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15">
+      <c r="J14" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>9</v>
       </c>
@@ -1416,9 +1660,11 @@
       <c r="I15" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="15">
+      <c r="J15" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -1446,7 +1692,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>11</v>
       </c>
@@ -1472,9 +1718,11 @@
       <c r="I17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="15">
+      <c r="J17" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>12</v>
       </c>
@@ -1497,10 +1745,12 @@
         <v>19</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -1523,10 +1773,12 @@
         <v>19</v>
       </c>
       <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="15">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -1549,10 +1801,12 @@
         <v>19</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -1575,10 +1829,12 @@
         <v>19</v>
       </c>
       <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>16</v>
       </c>
@@ -1601,10 +1857,12 @@
         <v>19</v>
       </c>
       <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>17</v>
       </c>
@@ -1627,10 +1885,12 @@
         <v>19</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -1653,10 +1913,12 @@
         <v>19</v>
       </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -1679,10 +1941,12 @@
         <v>19</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -1705,10 +1969,12 @@
         <v>19</v>
       </c>
       <c r="H26" s="2"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -1731,10 +1997,12 @@
         <v>19</v>
       </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -1757,10 +2025,12 @@
         <v>19</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -1783,10 +2053,12 @@
         <v>19</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>24</v>
       </c>
@@ -1809,10 +2081,12 @@
         <v>19</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>25</v>
       </c>
@@ -1835,10 +2109,12 @@
         <v>19</v>
       </c>
       <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>26</v>
       </c>
@@ -1861,10 +2137,12 @@
         <v>19</v>
       </c>
       <c r="H32" s="2"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>27</v>
       </c>
@@ -1887,10 +2165,12 @@
         <v>19</v>
       </c>
       <c r="H33" s="2"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>28</v>
       </c>
@@ -1913,10 +2193,12 @@
         <v>19</v>
       </c>
       <c r="H34" s="2"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>29</v>
       </c>
@@ -1939,10 +2221,12 @@
         <v>19</v>
       </c>
       <c r="H35" s="2"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>30</v>
       </c>
@@ -1965,10 +2249,12 @@
         <v>19</v>
       </c>
       <c r="H36" s="2"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>31</v>
       </c>
@@ -1991,10 +2277,12 @@
         <v>19</v>
       </c>
       <c r="H37" s="2"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>32</v>
       </c>
@@ -2017,10 +2305,12 @@
         <v>19</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>33</v>
       </c>
@@ -2043,10 +2333,12 @@
         <v>19</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>34</v>
       </c>
@@ -2069,10 +2361,12 @@
         <v>19</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>35</v>
       </c>
@@ -2095,10 +2389,12 @@
         <v>19</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>36</v>
       </c>
@@ -2121,10 +2417,12 @@
         <v>19</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>37</v>
       </c>
@@ -2147,10 +2445,12 @@
         <v>19</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="15">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>38</v>
       </c>
@@ -2173,10 +2473,12 @@
         <v>19</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="15">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>39</v>
       </c>
@@ -2199,10 +2501,12 @@
         <v>19</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="15">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>40</v>
       </c>
@@ -2225,10 +2529,12 @@
         <v>19</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="15">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>41</v>
       </c>
@@ -2251,10 +2557,12 @@
         <v>19</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="15">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>42</v>
       </c>
@@ -2277,10 +2585,12 @@
         <v>19</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" ht="15">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>43</v>
       </c>
@@ -2303,10 +2613,12 @@
         <v>19</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" ht="15">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>44</v>
       </c>
@@ -2329,10 +2641,12 @@
         <v>19</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" ht="15">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>45</v>
       </c>
@@ -2355,10 +2669,12 @@
         <v>19</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" ht="15">
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>46</v>
       </c>
@@ -2381,10 +2697,12 @@
         <v>19</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="15">
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>47</v>
       </c>
@@ -2407,10 +2725,12 @@
         <v>19</v>
       </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="15">
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -2433,10 +2753,12 @@
         <v>19</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="15">
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>49</v>
       </c>
@@ -2459,10 +2781,12 @@
         <v>19</v>
       </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" ht="15">
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>50</v>
       </c>
@@ -2485,10 +2809,12 @@
         <v>19</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="15">
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>51</v>
       </c>
@@ -2511,10 +2837,12 @@
         <v>19</v>
       </c>
       <c r="H57" s="2"/>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" ht="15">
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>52</v>
       </c>
@@ -2536,11 +2864,15 @@
       <c r="G58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="3"/>
+      <c r="H58" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="15">
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>53</v>
       </c>
@@ -2563,10 +2895,12 @@
         <v>19</v>
       </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="15">
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>54</v>
       </c>
@@ -2589,10 +2923,12 @@
         <v>19</v>
       </c>
       <c r="H60" s="2"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="15">
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>55</v>
       </c>
@@ -2615,10 +2951,12 @@
         <v>19</v>
       </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="15">
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>56</v>
       </c>
@@ -2641,10 +2979,12 @@
         <v>19</v>
       </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="15">
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>57</v>
       </c>
@@ -2667,10 +3007,12 @@
         <v>19</v>
       </c>
       <c r="H63" s="2"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="15">
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>58</v>
       </c>
@@ -2693,10 +3035,12 @@
         <v>19</v>
       </c>
       <c r="H64" s="2"/>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" ht="15">
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>59</v>
       </c>
@@ -2719,10 +3063,12 @@
         <v>19</v>
       </c>
       <c r="H65" s="2"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" ht="15">
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>60</v>
       </c>
@@ -2745,10 +3091,12 @@
         <v>19</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="3"/>
+      <c r="I66" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="15">
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>61</v>
       </c>
@@ -2771,10 +3119,12 @@
         <v>19</v>
       </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" ht="15">
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>62</v>
       </c>
@@ -2797,10 +3147,12 @@
         <v>19</v>
       </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" ht="15">
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>63</v>
       </c>
@@ -2823,10 +3175,12 @@
         <v>19</v>
       </c>
       <c r="H69" s="2"/>
-      <c r="I69" s="3"/>
+      <c r="I69" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="15">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>64</v>
       </c>
@@ -2849,10 +3203,12 @@
         <v>19</v>
       </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="3"/>
+      <c r="I70" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" ht="15">
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>65</v>
       </c>
@@ -2875,10 +3231,12 @@
         <v>19</v>
       </c>
       <c r="H71" s="2"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" ht="15">
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>66</v>
       </c>
@@ -2901,10 +3259,12 @@
         <v>19</v>
       </c>
       <c r="H72" s="2"/>
-      <c r="I72" s="3"/>
+      <c r="I72" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" ht="15">
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>67</v>
       </c>
@@ -2927,10 +3287,12 @@
         <v>19</v>
       </c>
       <c r="H73" s="2"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" ht="15">
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>68</v>
       </c>
@@ -2953,10 +3315,12 @@
         <v>19</v>
       </c>
       <c r="H74" s="2"/>
-      <c r="I74" s="3"/>
+      <c r="I74" s="3" t="s">
+        <v>253</v>
+      </c>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" ht="15">
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>69</v>
       </c>
@@ -2979,10 +3343,12 @@
         <v>19</v>
       </c>
       <c r="H75" s="2"/>
-      <c r="I75" s="3"/>
+      <c r="I75" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" ht="15">
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>70</v>
       </c>
@@ -3005,10 +3371,12 @@
         <v>19</v>
       </c>
       <c r="H76" s="2"/>
-      <c r="I76" s="3"/>
+      <c r="I76" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="J76" s="4"/>
     </row>
-    <row r="78" spans="1:10" ht="15">
+    <row r="78" spans="1:10">
       <c r="A78" s="5" t="s">
         <v>0</v>
       </c>
@@ -3024,7 +3392,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" ht="15">
+    <row r="79" spans="1:10">
       <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
@@ -3040,7 +3408,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" ht="15">
+    <row r="80" spans="1:10">
       <c r="A80" s="5" t="s">
         <v>3</v>
       </c>
@@ -3056,7 +3424,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" ht="15">
+    <row r="81" spans="1:10">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
@@ -3072,7 +3440,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" ht="15">
+    <row r="82" spans="1:10">
       <c r="A82" s="5" t="s">
         <v>7</v>
       </c>
@@ -3088,7 +3456,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" ht="15">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>8</v>
       </c>
@@ -3120,7 +3488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -3148,7 +3516,7 @@
       </c>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="1:10" ht="15">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -3176,7 +3544,7 @@
       </c>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="1:10" ht="15">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -3204,7 +3572,7 @@
       </c>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="1:10" ht="15">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>4</v>
       </c>
@@ -3232,7 +3600,7 @@
       </c>
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="1:10" ht="15">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>5</v>
       </c>
@@ -3260,7 +3628,7 @@
       </c>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="1:10" ht="15">
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>6</v>
       </c>
@@ -3288,7 +3656,7 @@
       </c>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="1:10" ht="15">
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>7</v>
       </c>
@@ -3318,7 +3686,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15">
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>8</v>
       </c>
@@ -3346,7 +3714,7 @@
       </c>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="1:10" ht="15">
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>9</v>
       </c>
@@ -3374,7 +3742,7 @@
       </c>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="1:10" ht="15">
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>10</v>
       </c>
@@ -3402,7 +3770,7 @@
       </c>
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="1:10" ht="15">
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>11</v>
       </c>
@@ -3430,7 +3798,7 @@
       </c>
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="1:10" ht="15">
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>12</v>
       </c>
@@ -3458,7 +3826,7 @@
       </c>
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="1:10" ht="15">
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>13</v>
       </c>
@@ -3486,7 +3854,7 @@
       </c>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="1:10" ht="15">
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>14</v>
       </c>
@@ -3514,7 +3882,7 @@
       </c>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="1:10" ht="15">
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>15</v>
       </c>
@@ -3542,7 +3910,7 @@
       </c>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="1:10" ht="15">
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>16</v>
       </c>
@@ -3570,7 +3938,7 @@
       </c>
       <c r="J99" s="4"/>
     </row>
-    <row r="101" spans="1:10" ht="15">
+    <row r="101" spans="1:10">
       <c r="A101" s="5" t="s">
         <v>0</v>
       </c>
@@ -3586,7 +3954,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" ht="15">
+    <row r="102" spans="1:10">
       <c r="A102" s="5" t="s">
         <v>2</v>
       </c>
@@ -3602,7 +3970,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" ht="15">
+    <row r="103" spans="1:10">
       <c r="A103" s="5" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3986,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" ht="15">
+    <row r="104" spans="1:10">
       <c r="A104" s="5" t="s">
         <v>5</v>
       </c>
@@ -3634,7 +4002,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" ht="15">
+    <row r="105" spans="1:10">
       <c r="A105" s="5" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +4018,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" ht="15">
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
@@ -3682,7 +4050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>1</v>
       </c>
@@ -3710,7 +4078,7 @@
       </c>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" spans="1:10" ht="15">
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -3738,7 +4106,7 @@
       </c>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" spans="1:10" ht="15">
+    <row r="109" spans="1:10">
       <c r="A109" s="2">
         <v>3</v>
       </c>
@@ -3766,7 +4134,7 @@
       </c>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" spans="1:10" ht="15">
+    <row r="110" spans="1:10">
       <c r="A110" s="2">
         <v>4</v>
       </c>
@@ -3794,7 +4162,7 @@
       </c>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" spans="1:10" ht="15">
+    <row r="111" spans="1:10">
       <c r="A111" s="2">
         <v>5</v>
       </c>
@@ -3822,7 +4190,7 @@
       </c>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" spans="1:10" ht="15">
+    <row r="112" spans="1:10">
       <c r="A112" s="2">
         <v>6</v>
       </c>
@@ -3850,7 +4218,7 @@
       </c>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" spans="1:10" ht="15">
+    <row r="113" spans="1:10">
       <c r="A113" s="2">
         <v>7</v>
       </c>
@@ -3878,7 +4246,7 @@
       </c>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" spans="1:10" ht="15">
+    <row r="114" spans="1:10">
       <c r="A114" s="2">
         <v>8</v>
       </c>
@@ -3906,7 +4274,7 @@
       </c>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" spans="1:10" ht="15">
+    <row r="115" spans="1:10">
       <c r="A115" s="2">
         <v>9</v>
       </c>
@@ -3934,7 +4302,7 @@
       </c>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" spans="1:10" ht="15">
+    <row r="116" spans="1:10">
       <c r="A116" s="2">
         <v>10</v>
       </c>
@@ -3962,7 +4330,7 @@
       </c>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" spans="1:10" ht="15">
+    <row r="117" spans="1:10">
       <c r="A117" s="2">
         <v>11</v>
       </c>
@@ -3990,7 +4358,7 @@
       </c>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" spans="1:10" ht="15">
+    <row r="118" spans="1:10">
       <c r="A118" s="2">
         <v>12</v>
       </c>
@@ -4018,7 +4386,7 @@
       </c>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" spans="1:10" ht="15">
+    <row r="119" spans="1:10">
       <c r="A119" s="2">
         <v>13</v>
       </c>
@@ -4046,7 +4414,7 @@
       </c>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" spans="1:10" ht="15">
+    <row r="120" spans="1:10">
       <c r="A120" s="2">
         <v>14</v>
       </c>
@@ -4074,7 +4442,7 @@
       </c>
       <c r="J120" s="4"/>
     </row>
-    <row r="122" spans="1:10" ht="15">
+    <row r="122" spans="1:10">
       <c r="A122" s="5" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +4458,7 @@
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
     </row>
-    <row r="123" spans="1:10" ht="15">
+    <row r="123" spans="1:10">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -4106,7 +4474,7 @@
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
     </row>
-    <row r="124" spans="1:10" ht="15">
+    <row r="124" spans="1:10">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4490,7 @@
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
     </row>
-    <row r="125" spans="1:10" ht="15">
+    <row r="125" spans="1:10">
       <c r="A125" s="5" t="s">
         <v>5</v>
       </c>
@@ -4138,7 +4506,7 @@
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="1:10" ht="15">
+    <row r="126" spans="1:10">
       <c r="A126" s="5" t="s">
         <v>7</v>
       </c>
@@ -4154,7 +4522,7 @@
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="1:10" ht="15">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -4186,7 +4554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15">
+    <row r="128" spans="1:10">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -4216,7 +4584,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15">
+    <row r="129" spans="1:10">
       <c r="A129" s="2">
         <v>2</v>
       </c>
@@ -4246,7 +4614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15">
+    <row r="131" spans="1:10">
       <c r="A131" s="5" t="s">
         <v>0</v>
       </c>
@@ -4262,7 +4630,7 @@
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
     </row>
-    <row r="132" spans="1:10" ht="15">
+    <row r="132" spans="1:10">
       <c r="A132" s="5" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4646,7 @@
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
     </row>
-    <row r="133" spans="1:10" ht="15">
+    <row r="133" spans="1:10">
       <c r="A133" s="5" t="s">
         <v>3</v>
       </c>
@@ -4294,7 +4662,7 @@
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
     </row>
-    <row r="134" spans="1:10" ht="15">
+    <row r="134" spans="1:10">
       <c r="A134" s="5" t="s">
         <v>5</v>
       </c>
@@ -4310,7 +4678,7 @@
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
     </row>
-    <row r="135" spans="1:10" ht="15">
+    <row r="135" spans="1:10">
       <c r="A135" s="5" t="s">
         <v>7</v>
       </c>
@@ -4326,7 +4694,7 @@
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
     </row>
-    <row r="136" spans="1:10" ht="15">
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -4358,7 +4726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15">
+    <row r="137" spans="1:10">
       <c r="A137" s="2">
         <v>1</v>
       </c>
@@ -4388,7 +4756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15">
+    <row r="138" spans="1:10">
       <c r="A138" s="2">
         <v>2</v>
       </c>
@@ -4418,7 +4786,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15">
+    <row r="140" spans="1:10">
       <c r="A140" s="5" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4802,7 @@
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="1:10" ht="15">
+    <row r="141" spans="1:10">
       <c r="A141" s="5" t="s">
         <v>2</v>
       </c>
@@ -4450,7 +4818,7 @@
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="1:10" ht="15">
+    <row r="142" spans="1:10">
       <c r="A142" s="5" t="s">
         <v>3</v>
       </c>
@@ -4466,7 +4834,7 @@
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
     </row>
-    <row r="143" spans="1:10" ht="15">
+    <row r="143" spans="1:10">
       <c r="A143" s="5" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4850,7 @@
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="1:10" ht="15">
+    <row r="144" spans="1:10">
       <c r="A144" s="5" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4866,7 @@
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
     </row>
-    <row r="145" spans="1:10" ht="15">
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -4530,7 +4898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15">
+    <row r="146" spans="1:10">
       <c r="A146" s="2">
         <v>1</v>
       </c>
@@ -4560,7 +4928,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15">
+    <row r="147" spans="1:10">
       <c r="A147" s="2">
         <v>2</v>
       </c>
@@ -4588,7 +4956,7 @@
       </c>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" ht="15">
+    <row r="148" spans="1:10">
       <c r="A148" s="2">
         <v>3</v>
       </c>
@@ -4616,7 +4984,7 @@
       </c>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" ht="15">
+    <row r="149" spans="1:10">
       <c r="A149" s="2">
         <v>4</v>
       </c>
@@ -4644,7 +5012,7 @@
       </c>
       <c r="J149" s="4"/>
     </row>
-    <row r="151" spans="1:10" ht="15">
+    <row r="151" spans="1:10">
       <c r="A151" s="5" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +5028,7 @@
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
     </row>
-    <row r="152" spans="1:10" ht="15">
+    <row r="152" spans="1:10">
       <c r="A152" s="5" t="s">
         <v>2</v>
       </c>
@@ -4676,7 +5044,7 @@
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
     </row>
-    <row r="153" spans="1:10" ht="15">
+    <row r="153" spans="1:10">
       <c r="A153" s="5" t="s">
         <v>3</v>
       </c>
@@ -4692,7 +5060,7 @@
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
     </row>
-    <row r="154" spans="1:10" ht="15">
+    <row r="154" spans="1:10">
       <c r="A154" s="5" t="s">
         <v>5</v>
       </c>
@@ -4708,7 +5076,7 @@
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
     </row>
-    <row r="155" spans="1:10" ht="15">
+    <row r="155" spans="1:10">
       <c r="A155" s="5" t="s">
         <v>7</v>
       </c>
@@ -4724,7 +5092,7 @@
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
     </row>
-    <row r="156" spans="1:10" ht="15">
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="s">
         <v>8</v>
       </c>
@@ -4756,7 +5124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15">
+    <row r="157" spans="1:10">
       <c r="A157" s="2">
         <v>1</v>
       </c>
@@ -4784,7 +5152,7 @@
       </c>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" ht="15">
+    <row r="158" spans="1:10">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -4812,7 +5180,7 @@
       </c>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="1:10" ht="15">
+    <row r="159" spans="1:10">
       <c r="A159" s="2">
         <v>3</v>
       </c>
@@ -4840,7 +5208,7 @@
       </c>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="15">
+    <row r="160" spans="1:10">
       <c r="A160" s="2">
         <v>4</v>
       </c>
@@ -4868,7 +5236,7 @@
       </c>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="15">
+    <row r="161" spans="1:10">
       <c r="A161" s="2">
         <v>5</v>
       </c>
@@ -4896,7 +5264,7 @@
       </c>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="15">
+    <row r="162" spans="1:10">
       <c r="A162" s="2">
         <v>6</v>
       </c>
@@ -4924,7 +5292,7 @@
       </c>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="15">
+    <row r="163" spans="1:10">
       <c r="A163" s="2">
         <v>7</v>
       </c>
@@ -4952,7 +5320,7 @@
       </c>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="15">
+    <row r="164" spans="1:10">
       <c r="A164" s="2">
         <v>8</v>
       </c>
@@ -4982,6 +5350,66 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="E80:J80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="E81:J81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="E82:J82"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:J101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E102:J102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="E103:J103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="E104:J104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="E105:J105"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="E122:J122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="E123:J123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="E124:J124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="E125:J125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="E126:J126"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="E131:J131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="E132:J132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="E133:J133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="E134:J134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="E135:J135"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="E140:J140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="E141:J141"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="E142:J142"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="E143:J143"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="E144:J144"/>
     <mergeCell ref="A154:D154"/>
     <mergeCell ref="E154:J154"/>
     <mergeCell ref="A155:D155"/>
@@ -4992,66 +5420,6 @@
     <mergeCell ref="E152:J152"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="E153:J153"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="E142:J142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="E143:J143"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="E144:J144"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="E135:J135"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="E140:J140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="E141:J141"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="E132:J132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="E133:J133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="E134:J134"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="E125:J125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="E126:J126"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="E131:J131"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="E122:J122"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="E123:J123"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="E124:J124"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="E103:J103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="E104:J104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="E105:J105"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="E82:J82"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:J101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E102:J102"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="E80:J80"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="E81:J81"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
